--- a/natmiOut/OldD2/LR-pairs_lrc2p/Icam2-Itgam.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Icam2-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.6073597953393</v>
+        <v>50.6391945</v>
       </c>
       <c r="H2">
-        <v>50.6073597953393</v>
+        <v>101.278389</v>
       </c>
       <c r="I2">
-        <v>0.5421618622715959</v>
+        <v>0.5364920657213447</v>
       </c>
       <c r="J2">
-        <v>0.5421618622715959</v>
+        <v>0.4366943366889108</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>119.687408056835</v>
+        <v>125.6990966666667</v>
       </c>
       <c r="N2">
-        <v>119.687408056835</v>
+        <v>377.09729</v>
       </c>
       <c r="O2">
-        <v>0.5810005795823685</v>
+        <v>0.5869187672767673</v>
       </c>
       <c r="P2">
-        <v>0.5810005795823685</v>
+        <v>0.5869561130196211</v>
       </c>
       <c r="Q2">
-        <v>6057.06372250384</v>
+        <v>6365.301004577635</v>
       </c>
       <c r="R2">
-        <v>6057.06372250384</v>
+        <v>38191.80602746581</v>
       </c>
       <c r="S2">
-        <v>0.3149963562072535</v>
+        <v>0.314877261866938</v>
       </c>
       <c r="T2">
-        <v>0.3149963562072535</v>
+        <v>0.2563204104406048</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,57 +599,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.6073597953393</v>
+        <v>50.6391945</v>
       </c>
       <c r="H3">
-        <v>50.6073597953393</v>
+        <v>101.278389</v>
       </c>
       <c r="I3">
-        <v>0.5421618622715959</v>
+        <v>0.5364920657213447</v>
       </c>
       <c r="J3">
-        <v>0.5421618622715959</v>
+        <v>0.4366943366889108</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>86.3148099493295</v>
+        <v>88.299099</v>
       </c>
       <c r="N3">
-        <v>86.3148099493295</v>
+        <v>264.897297</v>
       </c>
       <c r="O3">
-        <v>0.4189994204176315</v>
+        <v>0.4122893458348313</v>
       </c>
       <c r="P3">
-        <v>0.4189994204176315</v>
+        <v>0.4123155798773417</v>
       </c>
       <c r="Q3">
-        <v>4368.164642772051</v>
+        <v>4471.395248435756</v>
       </c>
       <c r="R3">
-        <v>4368.164642772051</v>
+        <v>26828.37149061453</v>
       </c>
       <c r="S3">
-        <v>0.2271655060643424</v>
+        <v>0.2211899628218305</v>
       </c>
       <c r="T3">
-        <v>0.2271655060643424</v>
+        <v>0.1800558786610394</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.535825600255992</v>
+        <v>50.6391945</v>
       </c>
       <c r="H4">
-        <v>0.535825600255992</v>
+        <v>101.278389</v>
       </c>
       <c r="I4">
-        <v>0.005740354890324439</v>
+        <v>0.5364920657213447</v>
       </c>
       <c r="J4">
-        <v>0.005740354890324439</v>
+        <v>0.4366943366889108</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>119.687408056835</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N4">
-        <v>119.687408056835</v>
+        <v>0.38615</v>
       </c>
       <c r="O4">
-        <v>0.5810005795823685</v>
+        <v>0.0006010085142322918</v>
       </c>
       <c r="P4">
-        <v>0.5810005795823685</v>
+        <v>0.0006010467565081856</v>
       </c>
       <c r="Q4">
-        <v>64.13157726513747</v>
+        <v>6.518108318725001</v>
       </c>
       <c r="R4">
-        <v>64.13157726513747</v>
+        <v>39.10864991235</v>
       </c>
       <c r="S4">
-        <v>0.003335149518286982</v>
+        <v>0.0003224362993165984</v>
       </c>
       <c r="T4">
-        <v>0.003335149518286982</v>
+        <v>0.0002624737146523634</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.535825600255992</v>
+        <v>50.6391945</v>
       </c>
       <c r="H5">
-        <v>0.535825600255992</v>
+        <v>101.278389</v>
       </c>
       <c r="I5">
-        <v>0.005740354890324439</v>
+        <v>0.5364920657213447</v>
       </c>
       <c r="J5">
-        <v>0.005740354890324439</v>
+        <v>0.4366943366889108</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>86.3148099493295</v>
+        <v>0.04088</v>
       </c>
       <c r="N5">
-        <v>86.3148099493295</v>
+        <v>0.08176</v>
       </c>
       <c r="O5">
-        <v>0.4189994204176315</v>
+        <v>0.0001908783741692303</v>
       </c>
       <c r="P5">
-        <v>0.4189994204176315</v>
+        <v>0.000127260346528834</v>
       </c>
       <c r="Q5">
-        <v>46.24968485208135</v>
+        <v>2.07013027116</v>
       </c>
       <c r="R5">
-        <v>46.24968485208135</v>
+        <v>8.28052108464</v>
       </c>
       <c r="S5">
-        <v>0.002405205372037457</v>
+        <v>0.0001024047332595821</v>
       </c>
       <c r="T5">
-        <v>0.002405205372037457</v>
+        <v>5.55738726142101E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,57 +785,57 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.05881905088223</v>
+        <v>0.667119</v>
       </c>
       <c r="H6">
-        <v>4.05881905088223</v>
+        <v>2.001357</v>
       </c>
       <c r="I6">
-        <v>0.04348254688940323</v>
+        <v>0.007067727951161579</v>
       </c>
       <c r="J6">
-        <v>0.04348254688940323</v>
+        <v>0.008629494171680676</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>119.687408056835</v>
+        <v>125.6990966666667</v>
       </c>
       <c r="N6">
-        <v>119.687408056835</v>
+        <v>377.09729</v>
       </c>
       <c r="O6">
-        <v>0.5810005795823685</v>
+        <v>0.5869187672767673</v>
       </c>
       <c r="P6">
-        <v>0.5810005795823685</v>
+        <v>0.5869561130196211</v>
       </c>
       <c r="Q6">
-        <v>485.7895319717971</v>
+        <v>83.85625566917001</v>
       </c>
       <c r="R6">
-        <v>485.7895319717971</v>
+        <v>754.7063010225301</v>
       </c>
       <c r="S6">
-        <v>0.02526338494446079</v>
+        <v>0.004148182176543306</v>
       </c>
       <c r="T6">
-        <v>0.02526338494446079</v>
+        <v>0.005065134356335165</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.05881905088223</v>
+        <v>0.667119</v>
       </c>
       <c r="H7">
-        <v>4.05881905088223</v>
+        <v>2.001357</v>
       </c>
       <c r="I7">
-        <v>0.04348254688940323</v>
+        <v>0.007067727951161579</v>
       </c>
       <c r="J7">
-        <v>0.04348254688940323</v>
+        <v>0.008629494171680676</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.3148099493295</v>
+        <v>88.299099</v>
       </c>
       <c r="N7">
-        <v>86.3148099493295</v>
+        <v>264.897297</v>
       </c>
       <c r="O7">
-        <v>0.4189994204176315</v>
+        <v>0.4122893458348313</v>
       </c>
       <c r="P7">
-        <v>0.4189994204176315</v>
+        <v>0.4123155798773417</v>
       </c>
       <c r="Q7">
-        <v>350.3361949956176</v>
+        <v>58.906006625781</v>
       </c>
       <c r="R7">
-        <v>350.3361949956176</v>
+        <v>530.154059632029</v>
       </c>
       <c r="S7">
-        <v>0.01821916194494244</v>
+        <v>0.00291394893352296</v>
       </c>
       <c r="T7">
-        <v>0.01821916194494244</v>
+        <v>0.003558074893444659</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.18052744566125</v>
+        <v>0.667119</v>
       </c>
       <c r="H8">
-        <v>6.18052744566125</v>
+        <v>2.001357</v>
       </c>
       <c r="I8">
-        <v>0.06621262763581297</v>
+        <v>0.007067727951161579</v>
       </c>
       <c r="J8">
-        <v>0.06621262763581297</v>
+        <v>0.008629494171680676</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>119.687408056835</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N8">
-        <v>119.687408056835</v>
+        <v>0.38615</v>
       </c>
       <c r="O8">
-        <v>0.5810005795823685</v>
+        <v>0.0006010085142322918</v>
       </c>
       <c r="P8">
-        <v>0.5810005795823685</v>
+        <v>0.0006010467565081856</v>
       </c>
       <c r="Q8">
-        <v>739.7313103953261</v>
+        <v>0.08586933395</v>
       </c>
       <c r="R8">
-        <v>739.7313103953261</v>
+        <v>0.77282400555</v>
       </c>
       <c r="S8">
-        <v>0.03846957503207889</v>
+        <v>4.247764674925661E-06</v>
       </c>
       <c r="T8">
-        <v>0.03846957503207889</v>
+        <v>5.186729482194962E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.18052744566125</v>
+        <v>0.667119</v>
       </c>
       <c r="H9">
-        <v>6.18052744566125</v>
+        <v>2.001357</v>
       </c>
       <c r="I9">
-        <v>0.06621262763581297</v>
+        <v>0.007067727951161579</v>
       </c>
       <c r="J9">
-        <v>0.06621262763581297</v>
+        <v>0.008629494171680676</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>86.3148099493295</v>
+        <v>0.04088</v>
       </c>
       <c r="N9">
-        <v>86.3148099493295</v>
+        <v>0.08176</v>
       </c>
       <c r="O9">
-        <v>0.4189994204176315</v>
+        <v>0.0001908783741692303</v>
       </c>
       <c r="P9">
-        <v>0.4189994204176315</v>
+        <v>0.000127260346528834</v>
       </c>
       <c r="Q9">
-        <v>533.4710518588657</v>
+        <v>0.02727182472</v>
       </c>
       <c r="R9">
-        <v>533.4710518588657</v>
+        <v>0.16363094832</v>
       </c>
       <c r="S9">
-        <v>0.02774305260373408</v>
+        <v>1.349076420388147E-06</v>
       </c>
       <c r="T9">
-        <v>0.02774305260373408</v>
+        <v>1.098192418656636E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,57 +1033,57 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>31.4219376930784</v>
+        <v>4.321189</v>
       </c>
       <c r="H10">
-        <v>31.4219376930784</v>
+        <v>12.963567</v>
       </c>
       <c r="I10">
-        <v>0.336626457589482</v>
+        <v>0.0457804204010858</v>
       </c>
       <c r="J10">
-        <v>0.336626457589482</v>
+        <v>0.05589658710099796</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>119.687408056835</v>
+        <v>125.6990966666667</v>
       </c>
       <c r="N10">
-        <v>119.687408056835</v>
+        <v>377.09729</v>
       </c>
       <c r="O10">
-        <v>0.5810005795823685</v>
+        <v>0.5869187672767673</v>
       </c>
       <c r="P10">
-        <v>0.5810005795823685</v>
+        <v>0.5869561130196211</v>
       </c>
       <c r="Q10">
-        <v>3760.810278607919</v>
+        <v>543.1695538259368</v>
       </c>
       <c r="R10">
-        <v>3760.810278607919</v>
+        <v>4888.525984433431</v>
       </c>
       <c r="S10">
-        <v>0.1955801669622486</v>
+        <v>0.02686938790721745</v>
       </c>
       <c r="T10">
-        <v>0.1955801669622486</v>
+        <v>0.03280884349586445</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>31.4219376930784</v>
+        <v>4.321189</v>
       </c>
       <c r="H11">
-        <v>31.4219376930784</v>
+        <v>12.963567</v>
       </c>
       <c r="I11">
-        <v>0.336626457589482</v>
+        <v>0.0457804204010858</v>
       </c>
       <c r="J11">
-        <v>0.336626457589482</v>
+        <v>0.05589658710099796</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.3148099493295</v>
+        <v>88.299099</v>
       </c>
       <c r="N11">
-        <v>86.3148099493295</v>
+        <v>264.897297</v>
       </c>
       <c r="O11">
-        <v>0.4189994204176315</v>
+        <v>0.4122893458348313</v>
       </c>
       <c r="P11">
-        <v>0.4189994204176315</v>
+        <v>0.4123155798773417</v>
       </c>
       <c r="Q11">
-        <v>2712.178580217735</v>
+        <v>381.557095308711</v>
       </c>
       <c r="R11">
-        <v>2712.178580217735</v>
+        <v>3434.013857778399</v>
       </c>
       <c r="S11">
-        <v>0.1410462906272333</v>
+        <v>0.01887477957920723</v>
       </c>
       <c r="T11">
-        <v>0.1410462906272333</v>
+        <v>0.02304703372371231</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,861 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.539166913485054</v>
+        <v>4.321189</v>
       </c>
       <c r="H12">
-        <v>0.539166913485054</v>
+        <v>12.963567</v>
       </c>
       <c r="I12">
-        <v>0.005776150723381665</v>
+        <v>0.0457804204010858</v>
       </c>
       <c r="J12">
-        <v>0.005776150723381665</v>
+        <v>0.05589658710099796</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>119.687408056835</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N12">
-        <v>119.687408056835</v>
+        <v>0.38615</v>
       </c>
       <c r="O12">
-        <v>0.5810005795823685</v>
+        <v>0.0006010085142322918</v>
       </c>
       <c r="P12">
-        <v>0.5810005795823685</v>
+        <v>0.0006010467565081856</v>
       </c>
       <c r="Q12">
-        <v>64.53149038502991</v>
+        <v>0.5562090441166667</v>
       </c>
       <c r="R12">
-        <v>64.53149038502991</v>
+        <v>5.00588139705</v>
       </c>
       <c r="S12">
-        <v>0.003355946918039864</v>
+        <v>2.751442244618628E-05</v>
       </c>
       <c r="T12">
-        <v>0.003355946918039864</v>
+        <v>3.359646237693211E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.321189</v>
+      </c>
+      <c r="H13">
+        <v>12.963567</v>
+      </c>
+      <c r="I13">
+        <v>0.0457804204010858</v>
+      </c>
+      <c r="J13">
+        <v>0.05589658710099796</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.04088</v>
+      </c>
+      <c r="N13">
+        <v>0.08176</v>
+      </c>
+      <c r="O13">
+        <v>0.0001908783741692303</v>
+      </c>
+      <c r="P13">
+        <v>0.000127260346528834</v>
+      </c>
+      <c r="Q13">
+        <v>0.17665020632</v>
+      </c>
+      <c r="R13">
+        <v>1.05990123792</v>
+      </c>
+      <c r="S13">
+        <v>8.738492214943117E-06</v>
+      </c>
+      <c r="T13">
+        <v>7.113419044252155E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.539166913485054</v>
-      </c>
-      <c r="H13">
-        <v>0.539166913485054</v>
-      </c>
-      <c r="I13">
-        <v>0.005776150723381665</v>
-      </c>
-      <c r="J13">
-        <v>0.005776150723381665</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>86.3148099493295</v>
-      </c>
-      <c r="N13">
-        <v>86.3148099493295</v>
-      </c>
-      <c r="O13">
-        <v>0.4189994204176315</v>
-      </c>
-      <c r="P13">
-        <v>0.4189994204176315</v>
-      </c>
-      <c r="Q13">
-        <v>46.53808966842902</v>
-      </c>
-      <c r="R13">
-        <v>46.53808966842902</v>
-      </c>
-      <c r="S13">
-        <v>0.002420203805341801</v>
-      </c>
-      <c r="T13">
-        <v>0.002420203805341801</v>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.262834666666667</v>
+      </c>
+      <c r="H14">
+        <v>18.788504</v>
+      </c>
+      <c r="I14">
+        <v>0.06635099828831695</v>
+      </c>
+      <c r="J14">
+        <v>0.08101267578078228</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>125.6990966666667</v>
+      </c>
+      <c r="N14">
+        <v>377.09729</v>
+      </c>
+      <c r="O14">
+        <v>0.5869187672767673</v>
+      </c>
+      <c r="P14">
+        <v>0.5869561130196211</v>
+      </c>
+      <c r="Q14">
+        <v>787.2326601726845</v>
+      </c>
+      <c r="R14">
+        <v>7085.093941554161</v>
+      </c>
+      <c r="S14">
+        <v>0.03894264612296188</v>
+      </c>
+      <c r="T14">
+        <v>0.04755088528160677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.262834666666667</v>
+      </c>
+      <c r="H15">
+        <v>18.788504</v>
+      </c>
+      <c r="I15">
+        <v>0.06635099828831695</v>
+      </c>
+      <c r="J15">
+        <v>0.08101267578078228</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>88.299099</v>
+      </c>
+      <c r="N15">
+        <v>264.897297</v>
+      </c>
+      <c r="O15">
+        <v>0.4122893458348313</v>
+      </c>
+      <c r="P15">
+        <v>0.4123155798773417</v>
+      </c>
+      <c r="Q15">
+        <v>553.0026582526319</v>
+      </c>
+      <c r="R15">
+        <v>4977.023924273688</v>
+      </c>
+      <c r="S15">
+        <v>0.02735580967977821</v>
+      </c>
+      <c r="T15">
+        <v>0.03340278839196832</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.262834666666667</v>
+      </c>
+      <c r="H16">
+        <v>18.788504</v>
+      </c>
+      <c r="I16">
+        <v>0.06635099828831695</v>
+      </c>
+      <c r="J16">
+        <v>0.08101267578078228</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.38615</v>
+      </c>
+      <c r="O16">
+        <v>0.0006010085142322918</v>
+      </c>
+      <c r="P16">
+        <v>0.0006010467565081856</v>
+      </c>
+      <c r="Q16">
+        <v>0.8061312021777778</v>
+      </c>
+      <c r="R16">
+        <v>7.2551808196</v>
+      </c>
+      <c r="S16">
+        <v>3.987751489909071E-05</v>
+      </c>
+      <c r="T16">
+        <v>4.869240601408843E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.262834666666667</v>
+      </c>
+      <c r="H17">
+        <v>18.788504</v>
+      </c>
+      <c r="I17">
+        <v>0.06635099828831695</v>
+      </c>
+      <c r="J17">
+        <v>0.08101267578078228</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.04088</v>
+      </c>
+      <c r="N17">
+        <v>0.08176</v>
+      </c>
+      <c r="O17">
+        <v>0.0001908783741692303</v>
+      </c>
+      <c r="P17">
+        <v>0.000127260346528834</v>
+      </c>
+      <c r="Q17">
+        <v>0.2560246811733333</v>
+      </c>
+      <c r="R17">
+        <v>1.53614808704</v>
+      </c>
+      <c r="S17">
+        <v>1.266497067777932E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.030970119309043E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>31.89049033333333</v>
+      </c>
+      <c r="H18">
+        <v>95.671471</v>
+      </c>
+      <c r="I18">
+        <v>0.3378607263548905</v>
+      </c>
+      <c r="J18">
+        <v>0.4125183070239926</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>125.6990966666667</v>
+      </c>
+      <c r="N18">
+        <v>377.09729</v>
+      </c>
+      <c r="O18">
+        <v>0.5869187672767673</v>
+      </c>
+      <c r="P18">
+        <v>0.5869561130196211</v>
+      </c>
+      <c r="Q18">
+        <v>4008.605827157066</v>
+      </c>
+      <c r="R18">
+        <v>36077.45244441359</v>
+      </c>
+      <c r="S18">
+        <v>0.1982968010234455</v>
+      </c>
+      <c r="T18">
+        <v>0.2421301420402374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>31.89049033333333</v>
+      </c>
+      <c r="H19">
+        <v>95.671471</v>
+      </c>
+      <c r="I19">
+        <v>0.3378607263548905</v>
+      </c>
+      <c r="J19">
+        <v>0.4125183070239926</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>88.299099</v>
+      </c>
+      <c r="N19">
+        <v>264.897297</v>
+      </c>
+      <c r="O19">
+        <v>0.4122893458348313</v>
+      </c>
+      <c r="P19">
+        <v>0.4123155798773417</v>
+      </c>
+      <c r="Q19">
+        <v>2815.901563101543</v>
+      </c>
+      <c r="R19">
+        <v>25343.11406791388</v>
+      </c>
+      <c r="S19">
+        <v>0.1392963778521387</v>
+      </c>
+      <c r="T19">
+        <v>0.1700877249706168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>31.89049033333333</v>
+      </c>
+      <c r="H20">
+        <v>95.671471</v>
+      </c>
+      <c r="I20">
+        <v>0.3378607263548905</v>
+      </c>
+      <c r="J20">
+        <v>0.4125183070239926</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.38615</v>
+      </c>
+      <c r="O20">
+        <v>0.0006010085142322918</v>
+      </c>
+      <c r="P20">
+        <v>0.0006010467565081856</v>
+      </c>
+      <c r="Q20">
+        <v>4.104837614072222</v>
+      </c>
+      <c r="R20">
+        <v>36.94353852664999</v>
+      </c>
+      <c r="S20">
+        <v>0.0002030571731639956</v>
+      </c>
+      <c r="T20">
+        <v>0.0002479427904370186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>31.89049033333333</v>
+      </c>
+      <c r="H21">
+        <v>95.671471</v>
+      </c>
+      <c r="I21">
+        <v>0.3378607263548905</v>
+      </c>
+      <c r="J21">
+        <v>0.4125183070239926</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.04088</v>
+      </c>
+      <c r="N21">
+        <v>0.08176</v>
+      </c>
+      <c r="O21">
+        <v>0.0001908783741692303</v>
+      </c>
+      <c r="P21">
+        <v>0.000127260346528834</v>
+      </c>
+      <c r="Q21">
+        <v>1.303683244826667</v>
+      </c>
+      <c r="R21">
+        <v>7.822099468959999</v>
+      </c>
+      <c r="S21">
+        <v>6.449030614225669E-05</v>
+      </c>
+      <c r="T21">
+        <v>5.249722270136125E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.608629</v>
+      </c>
+      <c r="H22">
+        <v>1.217258</v>
+      </c>
+      <c r="I22">
+        <v>0.006448061283200629</v>
+      </c>
+      <c r="J22">
+        <v>0.005248599233635816</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>125.6990966666667</v>
+      </c>
+      <c r="N22">
+        <v>377.09729</v>
+      </c>
+      <c r="O22">
+        <v>0.5869187672767673</v>
+      </c>
+      <c r="P22">
+        <v>0.5869561130196211</v>
+      </c>
+      <c r="Q22">
+        <v>76.50411550513667</v>
+      </c>
+      <c r="R22">
+        <v>459.0246930308201</v>
+      </c>
+      <c r="S22">
+        <v>0.003784488179661163</v>
+      </c>
+      <c r="T22">
+        <v>0.003080697404972641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.608629</v>
+      </c>
+      <c r="H23">
+        <v>1.217258</v>
+      </c>
+      <c r="I23">
+        <v>0.006448061283200629</v>
+      </c>
+      <c r="J23">
+        <v>0.005248599233635816</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>88.299099</v>
+      </c>
+      <c r="N23">
+        <v>264.897297</v>
+      </c>
+      <c r="O23">
+        <v>0.4122893458348313</v>
+      </c>
+      <c r="P23">
+        <v>0.4123155798773417</v>
+      </c>
+      <c r="Q23">
+        <v>53.74139232527099</v>
+      </c>
+      <c r="R23">
+        <v>322.448353951626</v>
+      </c>
+      <c r="S23">
+        <v>0.002658466968353691</v>
+      </c>
+      <c r="T23">
+        <v>0.002164079236560323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.608629</v>
+      </c>
+      <c r="H24">
+        <v>1.217258</v>
+      </c>
+      <c r="I24">
+        <v>0.006448061283200629</v>
+      </c>
+      <c r="J24">
+        <v>0.005248599233635816</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.38615</v>
+      </c>
+      <c r="O24">
+        <v>0.0006010085142322918</v>
+      </c>
+      <c r="P24">
+        <v>0.0006010467565081856</v>
+      </c>
+      <c r="Q24">
+        <v>0.07834069611666666</v>
+      </c>
+      <c r="R24">
+        <v>0.4700441767</v>
+      </c>
+      <c r="S24">
+        <v>3.875339731495176E-06</v>
+      </c>
+      <c r="T24">
+        <v>3.154653545588156E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.608629</v>
+      </c>
+      <c r="H25">
+        <v>1.217258</v>
+      </c>
+      <c r="I25">
+        <v>0.006448061283200629</v>
+      </c>
+      <c r="J25">
+        <v>0.005248599233635816</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.04088</v>
+      </c>
+      <c r="N25">
+        <v>0.08176</v>
+      </c>
+      <c r="O25">
+        <v>0.0001908783741692303</v>
+      </c>
+      <c r="P25">
+        <v>0.000127260346528834</v>
+      </c>
+      <c r="Q25">
+        <v>0.02488075352</v>
+      </c>
+      <c r="R25">
+        <v>0.09952301408</v>
+      </c>
+      <c r="S25">
+        <v>1.230795454280897E-06</v>
+      </c>
+      <c r="T25">
+        <v>6.679385572634666E-07</v>
       </c>
     </row>
   </sheetData>
